--- a/1_php/框架/yii2.xlsx
+++ b/1_php/框架/yii2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="组件" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>组件</t>
   </si>
@@ -25,6 +25,186 @@
   </si>
   <si>
     <t>migrate</t>
+  </si>
+  <si>
+    <t>errorHandler</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>yii\web\ErrorHandler</t>
+  </si>
+  <si>
+    <t>errorAction</t>
+  </si>
+  <si>
+    <t>site/error</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>yii\caching\FileCache</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>yii\db\Connection</t>
+  </si>
+  <si>
+    <t>dsn</t>
+  </si>
+  <si>
+    <t>mysql:host=localhost;dbname=yii2advanced</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>utf8</t>
+  </si>
+  <si>
+    <t>mailer</t>
+  </si>
+  <si>
+    <t>yii\swiftmailer\Mailer</t>
+  </si>
+  <si>
+    <t>viewPath</t>
+  </si>
+  <si>
+    <t>@common/mail</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>yii\web\Request</t>
+  </si>
+  <si>
+    <t>csrfParam</t>
+  </si>
+  <si>
+    <t>_csrf-frontend</t>
+  </si>
+  <si>
+    <t>cookieValidationKey</t>
+  </si>
+  <si>
+    <t>Kh0Uy46zNg9nEaOsdYDUmxIPaiKh_Elo</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>yii\web\User</t>
+  </si>
+  <si>
+    <t>identityClass</t>
+  </si>
+  <si>
+    <t>common\models\User</t>
+  </si>
+  <si>
+    <t>enableAutoLogin</t>
+  </si>
+  <si>
+    <t>identityCookie</t>
+  </si>
+  <si>
+    <t>['name' =&gt; '_identity-frontend', 'httpOnly' =&gt; true]</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>yii\web\Session</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>advanced-frontend</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>traceLevel</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>[['class' =&gt; 'yii\log\FileTarget','levels' =&gt; ['error', 'warning'],],]</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>yii\web\View</t>
+  </si>
+  <si>
+    <t>formatter</t>
+  </si>
+  <si>
+    <t>yii\i18n\Formatter</t>
+  </si>
+  <si>
+    <t>i18n</t>
+  </si>
+  <si>
+    <t>yii\i18n\I18N</t>
+  </si>
+  <si>
+    <t>urlManager</t>
+  </si>
+  <si>
+    <t>yii\web\UrlManager</t>
+  </si>
+  <si>
+    <t>assetManager</t>
+  </si>
+  <si>
+    <t>yii\web\AssetManager</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>yii\base\Security</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>yii\web\Response</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>在配置文件中写入。在application中注册进变量_definitions中，实例后放在变量_components中</t>
+  </si>
+  <si>
+    <t>实列化</t>
+  </si>
+  <si>
+    <t>用的是reflection反射机制：$reflection=new ReflectionClass("yii\db\Connection");$reflection-&gt;newInstanceArgs($config);</t>
   </si>
 </sst>
 </file>
@@ -32,12 +212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +226,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -62,142 +375,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,31 +390,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,37 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,116 +580,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -400,11 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,17 +629,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,37 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,154 +707,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1001,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="C3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1032,14 +1255,416 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B5:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" customWidth="1"/>
+    <col min="5" max="5" width="93" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
